--- a/PROJECT-2 (Autosaved).xlsx
+++ b/PROJECT-2 (Autosaved).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_alldata\Excel\"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1011,6 +1011,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1949,7 +1950,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2408,7 +2408,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2512,7 +2511,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2806,7 +2804,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3949,7 +3946,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -12861,7 +12857,116 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+  <location ref="F32:G38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="6">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="17" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable18" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -12943,42 +13048,42 @@
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="9">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="14">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="13">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13173,8 +13278,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="K17:L23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -13236,29 +13341,29 @@
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="16">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="21">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13397,115 +13502,6 @@
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
-  <location ref="F32:G38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="23">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="17" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -13825,7 +13821,7 @@
   <dimension ref="A1:Q201"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13840,7 +13836,7 @@
     <col min="9" max="9" width="9.08984375" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" customWidth="1"/>
     <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
     <col min="13" max="13" width="16.08984375" customWidth="1"/>
     <col min="15" max="15" width="20.54296875" customWidth="1"/>
   </cols>
@@ -13936,7 +13932,7 @@
       </c>
       <c r="N2" s="13">
         <f ca="1">NOW()</f>
-        <v>46070.576387152774</v>
+        <v>46076.684777546296</v>
       </c>
       <c r="O2" s="14" t="str">
         <f>INDEX($B$2:$B$201, MATCH(MAX($J$2:$J$201), $J$2:$J$201, 0))</f>
@@ -14118,7 +14114,7 @@
         <v>18507.339999999997</v>
       </c>
       <c r="M6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF(L5=0, 0, (L6-L5)/L5)</f>
         <v>-2.7463010957458799E-2</v>
       </c>
       <c r="N6" s="15"/>
@@ -21024,7 +21020,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21844,7 +21840,7 @@
   <dimension ref="A3:L38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="69" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="F32" sqref="F32:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22157,7 +22153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
       <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
